--- a/datos/proyectos/proyecto_colombia.xlsx
+++ b/datos/proyectos/proyecto_colombia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel Rico\Desktop\aplicativo-regalias\energia_renovable_colombia\datos\proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEFC1EB-A9A7-4D4B-83AF-76C27C3381C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC46291-0D33-44CE-A303-6ADDD5A4D271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B57EDB92-5439-456E-BA8D-8730900E0D62}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B57EDB92-5439-456E-BA8D-8730900E0D62}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -3488,9 +3488,6 @@
     <t xml:space="preserve">NARIÑO </t>
   </si>
   <si>
-    <t xml:space="preserve">BOYACÁ </t>
-  </si>
-  <si>
     <t xml:space="preserve">LA GUAJIRA </t>
   </si>
   <si>
@@ -3498,6 +3495,9 @@
   </si>
   <si>
     <t xml:space="preserve">TOLIMA </t>
+  </si>
+  <si>
+    <t>BOYACA</t>
   </si>
 </sst>
 </file>
@@ -3925,7 +3925,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4236,7 +4236,7 @@
         <v>35</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>31</v>
@@ -4292,7 +4292,7 @@
         <v>38</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>37</v>
@@ -4348,7 +4348,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>42</v>
@@ -4404,7 +4404,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>46</v>
@@ -4460,7 +4460,7 @@
         <v>54</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>50</v>
@@ -4516,7 +4516,7 @@
         <v>55</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>56</v>
